--- a/hw1_6.xlsx
+++ b/hw1_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhyun/git/MIPSpractice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTH417\Desktop\HGU\2020-2 가을학기\14 - 컴퓨터구조\MIPSpractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3106E9E1-5F37-A446-9D9F-5B94CBDBC01C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCDA187-52D0-4EC9-9C70-9E057639C120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{12468964-92EE-3044-A862-8BCBF05EEC70}"/>
+    <workbookView xWindow="-25380" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{12468964-92EE-3044-A862-8BCBF05EEC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Instruction</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,14 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0008014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0008018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00008028</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +153,26 @@
   </si>
   <si>
     <t>0x00008038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00008014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00008018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -542,17 +554,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4A16ED-5E43-B045-97FF-E6D92F2A73B8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,23 +575,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="38">
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -600,7 +613,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -622,7 +635,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -648,7 +661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="38">
+    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -674,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -700,12 +713,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>35</v>
@@ -722,12 +735,12 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -744,7 +757,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -766,12 +779,12 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -788,12 +801,12 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -810,12 +823,12 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -828,7 +841,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="38">
+    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -854,12 +867,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="38">
+    <row r="14" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>35</v>
@@ -876,12 +889,12 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
@@ -896,12 +909,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -936,6 +949,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>